--- a/sampleOLT.xlsx
+++ b/sampleOLT.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\SIADAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75F6EC2-7F16-4AD4-A4C5-6365FB15EB05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44CB8A6D-43FA-4C01-8552-8564EF3346E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="690" windowWidth="9750" windowHeight="9870" xr2:uid="{2F07D4E8-299D-4820-88F4-7212A5A7D11E}"/>
+    <workbookView xWindow="10230" yWindow="330" windowWidth="9750" windowHeight="9870" xr2:uid="{2F07D4E8-299D-4820-88F4-7212A5A7D11E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$79</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="272">
   <si>
     <t>NO</t>
   </si>
@@ -202,6 +205,651 @@
   </si>
   <si>
     <t>GPON00-D4-WNJ-3(172.22.203.12)</t>
+  </si>
+  <si>
+    <t>GPON00-D4-BMK-3</t>
+  </si>
+  <si>
+    <t>172.22.203.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEMARANG BANYUMANIK                                             </t>
+  </si>
+  <si>
+    <t>GPON00-D4-BMK-3(172.22.203.15)</t>
+  </si>
+  <si>
+    <t>GPON01-D4-BMK-3</t>
+  </si>
+  <si>
+    <t>172.22.203.201</t>
+  </si>
+  <si>
+    <t>GPON01-D4-BMK-3(172.22.203.201)</t>
+  </si>
+  <si>
+    <t>GPON02-D4-BMK-5</t>
+  </si>
+  <si>
+    <t>172.29.236.17</t>
+  </si>
+  <si>
+    <t>GPON02-D4-BMK-5(172.29.236.17)</t>
+  </si>
+  <si>
+    <t>GPON03-D4-BMK-5</t>
+  </si>
+  <si>
+    <t>172.29.237.138</t>
+  </si>
+  <si>
+    <t>GPON03-D4-BMK-5(172.29.237.138)</t>
+  </si>
+  <si>
+    <t>GPON04-D4-BMK-3</t>
+  </si>
+  <si>
+    <t>172.22.162.110</t>
+  </si>
+  <si>
+    <t>GPON04-D4-BMK-3(172.22.162.110)</t>
+  </si>
+  <si>
+    <t>GPON05-D4-BMK-3</t>
+  </si>
+  <si>
+    <t>172.29.237.199</t>
+  </si>
+  <si>
+    <t>GPON05-D4-BMK-3(172.29.237.199)</t>
+  </si>
+  <si>
+    <t>GPON06-D4-BMK-3</t>
+  </si>
+  <si>
+    <t>172.22.161.208</t>
+  </si>
+  <si>
+    <t>GPON06-D4-BMK-3(172.22.161.208)</t>
+  </si>
+  <si>
+    <t>GPON00-D4-SMC-3</t>
+  </si>
+  <si>
+    <t>172.22.203.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEMARANG CANDI                                                  </t>
+  </si>
+  <si>
+    <t>GPON00-D4-SMC-3(172.22.203.16)</t>
+  </si>
+  <si>
+    <t>GPON01-D4-SMC-3</t>
+  </si>
+  <si>
+    <t>172.22.203.34</t>
+  </si>
+  <si>
+    <t>GPON01-D4-SMC-3(172.22.203.34)</t>
+  </si>
+  <si>
+    <t>GPON02-D4-SMC-3</t>
+  </si>
+  <si>
+    <t>172.29.236.40</t>
+  </si>
+  <si>
+    <t>GPON02-D4-SMC-3(172.29.236.40)</t>
+  </si>
+  <si>
+    <t>GPON03-D4-SMC-3</t>
+  </si>
+  <si>
+    <t>172.29.236.44</t>
+  </si>
+  <si>
+    <t>c320v2.0 (mini olt)</t>
+  </si>
+  <si>
+    <t>GPON03-D4-SMC-3(172.29.236.44)</t>
+  </si>
+  <si>
+    <t>ZTE ZXA10 C320 Logical Device</t>
+  </si>
+  <si>
+    <t>GPON04-D4-SMC-3</t>
+  </si>
+  <si>
+    <t>172.29.236.45</t>
+  </si>
+  <si>
+    <t>GPON04-D4-SMC-3(172.29.236.45)</t>
+  </si>
+  <si>
+    <t>GPON00-D4-GNK-3</t>
+  </si>
+  <si>
+    <t>172.22.203.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEMARANG GENUK                                                           </t>
+  </si>
+  <si>
+    <t>GPON00-D4-GNK-3(172.22.203.22)</t>
+  </si>
+  <si>
+    <t>GPON01-D4-GNK-3</t>
+  </si>
+  <si>
+    <t>172.22.162.107</t>
+  </si>
+  <si>
+    <t>GPON01-D4-GNK-3(172.22.162.107)</t>
+  </si>
+  <si>
+    <t>GPON02-D4-GNK-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 172.29.236.47</t>
+  </si>
+  <si>
+    <t>GPON02-D4-GNK-3(172.29.236.47)</t>
+  </si>
+  <si>
+    <t>GPON00-D4-JHR-3</t>
+  </si>
+  <si>
+    <t>172.22.203.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEMARANG JOHAR                                                  </t>
+  </si>
+  <si>
+    <t>GPON00-D4-JHR-3(172.22.203.23)</t>
+  </si>
+  <si>
+    <t>GPON01-D4-JHR-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 172.22.203.49</t>
+  </si>
+  <si>
+    <t>HUAWEI</t>
+  </si>
+  <si>
+    <t>GPON01-D4-JHR-2(172.22.203.49)</t>
+  </si>
+  <si>
+    <t>Huawei MA5600T Logical Device</t>
+  </si>
+  <si>
+    <t>GPON02-D4-JHR-2</t>
+  </si>
+  <si>
+    <t>172.22.203.50</t>
+  </si>
+  <si>
+    <t>GPON02-D4-JHR-2(172.22.203.50)</t>
+  </si>
+  <si>
+    <t>GPON03-D4-JHR-2</t>
+  </si>
+  <si>
+    <t>172.22.203.51</t>
+  </si>
+  <si>
+    <t>GPON03-D4-JHR-2(172.22.203.51)</t>
+  </si>
+  <si>
+    <t>GPON04-D4-JHR-2</t>
+  </si>
+  <si>
+    <t>172.22.203.52</t>
+  </si>
+  <si>
+    <t>GPON04-D4-JHR-2(172.22.203.52)</t>
+  </si>
+  <si>
+    <t>GPON05-D4-JHR-2</t>
+  </si>
+  <si>
+    <t>172.22.203.53</t>
+  </si>
+  <si>
+    <t>GPON05-D4-JHR-2(172.22.203.53)</t>
+  </si>
+  <si>
+    <t>GPON06-D4-JHR-2</t>
+  </si>
+  <si>
+    <t>172.22.203.54</t>
+  </si>
+  <si>
+    <t>GPON06-D4-JHR-2(172.22.203.54)</t>
+  </si>
+  <si>
+    <t>GPON07-D4-JHR-3</t>
+  </si>
+  <si>
+    <t>172.22.203.202</t>
+  </si>
+  <si>
+    <t>GPON07-D4-JHR-3(172.22.203.202)</t>
+  </si>
+  <si>
+    <t>GPON08-D4-JHR-2</t>
+  </si>
+  <si>
+    <t>172.29.236.36</t>
+  </si>
+  <si>
+    <t>GPON08-D4-JHR-2(172.29.236.36)</t>
+  </si>
+  <si>
+    <t>GPON09-D4-JHR-2</t>
+  </si>
+  <si>
+    <t>172.29.236.35</t>
+  </si>
+  <si>
+    <t>GPON09-D4-JHR-2(172.29.236.35)</t>
+  </si>
+  <si>
+    <t>GPON10-D4-JHR-3</t>
+  </si>
+  <si>
+    <t>172.29.236.38</t>
+  </si>
+  <si>
+    <t>GPON10-D4-JHR-3(172.29.236.38)</t>
+  </si>
+  <si>
+    <t>GPON11-D4-JHR-2</t>
+  </si>
+  <si>
+    <t>172.29.236.41</t>
+  </si>
+  <si>
+    <t>GPON11-D4-JHR-2(172.29.236.41)</t>
+  </si>
+  <si>
+    <t>GPON00-D4-MJP-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 172.22.203.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEMARANG MAJAPAHIT                                              </t>
+  </si>
+  <si>
+    <t>GPON00-D4-MJP-3(172.22.203.24)</t>
+  </si>
+  <si>
+    <t>GPON01-D4-MJP-3</t>
+  </si>
+  <si>
+    <t>172.22.203.35</t>
+  </si>
+  <si>
+    <t>GPON01-D4-MJP-3(172.22.203.35)</t>
+  </si>
+  <si>
+    <t>GPON02-D4-MJP-5</t>
+  </si>
+  <si>
+    <t>172.29.236.9</t>
+  </si>
+  <si>
+    <t>GPON02-D4-MJP-5(172.29.236.9)</t>
+  </si>
+  <si>
+    <t>GPON03-D4-MJP-3</t>
+  </si>
+  <si>
+    <t>172.29.236.39</t>
+  </si>
+  <si>
+    <t>GPON03-D4-MJP-3(172.29.236.39)</t>
+  </si>
+  <si>
+    <t>GPON04-D4-MJP-5</t>
+  </si>
+  <si>
+    <t>GPON04-D4-MJP-5(172.29.236.6)</t>
+  </si>
+  <si>
+    <t>GPON05-D4-MJP-3</t>
+  </si>
+  <si>
+    <t>172.22.162.101</t>
+  </si>
+  <si>
+    <t>GPON05-D4-MJP-3(172.22.162.101)</t>
+  </si>
+  <si>
+    <t>GPON06-D4-MJP-3</t>
+  </si>
+  <si>
+    <t>172.22.160.43</t>
+  </si>
+  <si>
+    <t>GPON06-D4-MJP-3(172.22.160.43)</t>
+  </si>
+  <si>
+    <t>GPON07-D4-MJP-3</t>
+  </si>
+  <si>
+    <t>172.29.236.43</t>
+  </si>
+  <si>
+    <t>GPON07-D4-MJP-3(172.29.236.43)</t>
+  </si>
+  <si>
+    <t>GPON08-D4-MJP-3</t>
+  </si>
+  <si>
+    <t>172.29.236.46</t>
+  </si>
+  <si>
+    <t>GPON08-D4-MJP-3(172.29.236.46)</t>
+  </si>
+  <si>
+    <t>GPON09-D4-MJP-3</t>
+  </si>
+  <si>
+    <t>172.22.161.209.</t>
+  </si>
+  <si>
+    <t>GPON09-D4-MJP-3(172.22.161.209)</t>
+  </si>
+  <si>
+    <t>GPON00-D4-MKG-3</t>
+  </si>
+  <si>
+    <t>172.22.203.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEMARANG MANGKANG                                               </t>
+  </si>
+  <si>
+    <t>GPON00-D4-MKG-3(172.22.203.20)</t>
+  </si>
+  <si>
+    <t>GPON01-D4-MKG-5</t>
+  </si>
+  <si>
+    <t>172.29.236.19</t>
+  </si>
+  <si>
+    <t>GPON01-D4-MKG-5(172.29.236.19)</t>
+  </si>
+  <si>
+    <t>GPON02-D4-MKG-3</t>
+  </si>
+  <si>
+    <t>172.22.162.111</t>
+  </si>
+  <si>
+    <t>tidak ditemukan</t>
+  </si>
+  <si>
+    <t>GPON00-D4-SSL-3</t>
+  </si>
+  <si>
+    <t>172.22.203.17</t>
+  </si>
+  <si>
+    <t>GPON00-D4-SSL-3(172.22.203.17)</t>
+  </si>
+  <si>
+    <t>GPON01-D4-SSL-3</t>
+  </si>
+  <si>
+    <t>172.22.203.29</t>
+  </si>
+  <si>
+    <t>GPON01-D4-SSL-3(172.22.203.29)</t>
+  </si>
+  <si>
+    <t>GPON02-D4-SSL-5</t>
+  </si>
+  <si>
+    <t>172.29.236.8</t>
+  </si>
+  <si>
+    <t>GPON02-D4-SSL-5(172.29.236.8)</t>
+  </si>
+  <si>
+    <t>GPON03-D4-SSL-3</t>
+  </si>
+  <si>
+    <t>172.29.236.30</t>
+  </si>
+  <si>
+    <t>GPON03-D4-SSL-3(172.29.236.30)</t>
+  </si>
+  <si>
+    <t>GPON04-D4-SSL-3</t>
+  </si>
+  <si>
+    <t>172.29.236.236</t>
+  </si>
+  <si>
+    <t>GPON04-D4-SSL-3(172.29.236.236)</t>
+  </si>
+  <si>
+    <t>GPON00-D4-SMT-3</t>
+  </si>
+  <si>
+    <t>172.22.203.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEMARANG TUGU                                                   </t>
+  </si>
+  <si>
+    <t>GPON00-D4-SMT-3(172.22.203.21)</t>
+  </si>
+  <si>
+    <t>GPON01-D4-SMT-3</t>
+  </si>
+  <si>
+    <t>172.22.203.36</t>
+  </si>
+  <si>
+    <t>GPON01-D4-SMT-3(172.22.203.36)</t>
+  </si>
+  <si>
+    <t>GPON02-D4-SMT-2</t>
+  </si>
+  <si>
+    <t>172.22.203.57</t>
+  </si>
+  <si>
+    <t>GPON02-D4-SMT-2(172.22.203.57)</t>
+  </si>
+  <si>
+    <t>GPON03-D4-SMT-2</t>
+  </si>
+  <si>
+    <t>172.22.203.58</t>
+  </si>
+  <si>
+    <t>GPON03-D4-SMT-2(172.22.203.58)</t>
+  </si>
+  <si>
+    <t>GPON04-D4-SMT-2</t>
+  </si>
+  <si>
+    <t>172.22.203.59</t>
+  </si>
+  <si>
+    <t>GPON04-D4-SMT-2(172.22.203.59)</t>
+  </si>
+  <si>
+    <t>GPON05-D4-SMT-2</t>
+  </si>
+  <si>
+    <t>172.22.203.60</t>
+  </si>
+  <si>
+    <t>GPON05-D4-SMT-2(172.22.203.60)</t>
+  </si>
+  <si>
+    <t>GPON06-D4-SMT-2</t>
+  </si>
+  <si>
+    <t>172.22.203.61</t>
+  </si>
+  <si>
+    <t>GPON06-D4-SMT-2(172.22.203.61)</t>
+  </si>
+  <si>
+    <t>GPON07-D4-SMT-2</t>
+  </si>
+  <si>
+    <t>172.22.203.62</t>
+  </si>
+  <si>
+    <t>GPON07-D4-SMT-2(172.22.203.62)</t>
+  </si>
+  <si>
+    <t>GPON08-D4-SMT-2</t>
+  </si>
+  <si>
+    <t>172.22.203.55</t>
+  </si>
+  <si>
+    <t>GPON08-D4-SMT-2(172.22.203.55)</t>
+  </si>
+  <si>
+    <t>GPON09-D4-SMT-2</t>
+  </si>
+  <si>
+    <t>172.22.203.56</t>
+  </si>
+  <si>
+    <t>GPON09-D4-SMT-2(172.22.203.56)</t>
+  </si>
+  <si>
+    <t>GPON10-D4-SMT-2</t>
+  </si>
+  <si>
+    <t>172.29.236.42</t>
+  </si>
+  <si>
+    <t>GPON10-D4-SMT-2(172.29.236.42)</t>
+  </si>
+  <si>
+    <t>GPON11-D4-SMT-2</t>
+  </si>
+  <si>
+    <t>172.29.237.229</t>
+  </si>
+  <si>
+    <t>GPON11-D4-SMT-2(172.29.237.229)</t>
+  </si>
+  <si>
+    <t>Huawei MA5608T Logical Device</t>
+  </si>
+  <si>
+    <t>GPON12-D4-SMT-2</t>
+  </si>
+  <si>
+    <t>172.22.161.202</t>
+  </si>
+  <si>
+    <t>Mini OLT</t>
+  </si>
+  <si>
+    <t>GPON12-D4-SMT-2(172.22.161.202)</t>
+  </si>
+  <si>
+    <t>GPON00-D4-SKR-5</t>
+  </si>
+  <si>
+    <t>172.29.236.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUKOREJO                                                        </t>
+  </si>
+  <si>
+    <t>GPON00-D4-SKR-5(172.29.236.7)</t>
+  </si>
+  <si>
+    <t>GPON01-D4-SKR-3</t>
+  </si>
+  <si>
+    <t>GPON00-D4-UNR-3</t>
+  </si>
+  <si>
+    <t>172.22.203.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNGARAN                                                         </t>
+  </si>
+  <si>
+    <t>GPON00-D4-UNR-3(172.22.203.14)</t>
+  </si>
+  <si>
+    <t>GPON01-D4-UNR-3</t>
+  </si>
+  <si>
+    <t>172.22.203.204</t>
+  </si>
+  <si>
+    <t>GPON01-D4-UNR-3(172.22.203.204)</t>
+  </si>
+  <si>
+    <t>GPON02-D4-UNR-3</t>
+  </si>
+  <si>
+    <t>172.22.162.112</t>
+  </si>
+  <si>
+    <t>GPON02-D4-UNR-3(172.22.162.112)</t>
+  </si>
+  <si>
+    <t>GPON03-D4-UNR-3</t>
+  </si>
+  <si>
+    <t>172.29.236.253</t>
+  </si>
+  <si>
+    <t>GPON03-D4-UNR-3(172.29.236.253)</t>
+  </si>
+  <si>
+    <t>GPON04-D4-UNR-3</t>
+  </si>
+  <si>
+    <t>172.29.236.245</t>
+  </si>
+  <si>
+    <t>GPON04-D4-UNR-3(172.29.236.245)</t>
+  </si>
+  <si>
+    <t>GPON00-D4-WLR-3</t>
+  </si>
+  <si>
+    <t>172.22.203.205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WELERI                                                          </t>
+  </si>
+  <si>
+    <t>GPON00-D4-WLR-3(172.22.203.205)</t>
+  </si>
+  <si>
+    <t>GPON02-D4-WLR-5</t>
+  </si>
+  <si>
+    <t>172.29.236.18</t>
+  </si>
+  <si>
+    <t>GPON02-D4-WLR-5(172.29.236.18)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEMARANG SIMPANG LIMA                                                </t>
   </si>
 </sst>
 </file>
@@ -576,10 +1224,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{356651A2-819C-4AE8-89E6-8DFE16859686}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="B44" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,6 +1547,9 @@
       <c r="H11" t="s">
         <v>52</v>
       </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -925,8 +1576,1853 @@
       <c r="H12" t="s">
         <v>56</v>
       </c>
+      <c r="I12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13">
+        <v>12975109</v>
+      </c>
+      <c r="H13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14">
+        <v>12975107</v>
+      </c>
+      <c r="H14" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15">
+        <v>14025011</v>
+      </c>
+      <c r="H15" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16">
+        <v>13950008</v>
+      </c>
+      <c r="H16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17">
+        <v>25200047</v>
+      </c>
+      <c r="H17" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18">
+        <v>114075169</v>
+      </c>
+      <c r="H18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19">
+        <v>133425163</v>
+      </c>
+      <c r="H19" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20">
+        <v>14550039</v>
+      </c>
+      <c r="H20" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21">
+        <v>14400008</v>
+      </c>
+      <c r="H21" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22">
+        <v>14475029</v>
+      </c>
+      <c r="H22" t="s">
+        <v>88</v>
+      </c>
+      <c r="I22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23">
+        <v>132375161</v>
+      </c>
+      <c r="H23" t="s">
+        <v>92</v>
+      </c>
+      <c r="I23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24">
+        <v>117375162</v>
+      </c>
+      <c r="H24" t="s">
+        <v>96</v>
+      </c>
+      <c r="I24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25">
+        <v>13125019</v>
+      </c>
+      <c r="H25" t="s">
+        <v>100</v>
+      </c>
+      <c r="I25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26">
+        <v>25125065</v>
+      </c>
+      <c r="H26" t="s">
+        <v>103</v>
+      </c>
+      <c r="I26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27">
+        <v>117375160</v>
+      </c>
+      <c r="H27" t="s">
+        <v>106</v>
+      </c>
+      <c r="I27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28">
+        <v>14550047</v>
+      </c>
+      <c r="H28" t="s">
+        <v>110</v>
+      </c>
+      <c r="I28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" t="s">
+        <v>109</v>
+      </c>
+      <c r="F29" t="s">
+        <v>113</v>
+      </c>
+      <c r="G29">
+        <v>12975102</v>
+      </c>
+      <c r="H29" t="s">
+        <v>114</v>
+      </c>
+      <c r="I29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" t="s">
+        <v>113</v>
+      </c>
+      <c r="G30">
+        <v>12975092</v>
+      </c>
+      <c r="H30" t="s">
+        <v>118</v>
+      </c>
+      <c r="I30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31" t="s">
+        <v>113</v>
+      </c>
+      <c r="G31">
+        <v>12975093</v>
+      </c>
+      <c r="H31" t="s">
+        <v>121</v>
+      </c>
+      <c r="I31" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F32" t="s">
+        <v>113</v>
+      </c>
+      <c r="G32">
+        <v>12975090</v>
+      </c>
+      <c r="H32" t="s">
+        <v>124</v>
+      </c>
+      <c r="I32" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33" t="s">
+        <v>113</v>
+      </c>
+      <c r="G33">
+        <v>12975100</v>
+      </c>
+      <c r="H33" t="s">
+        <v>127</v>
+      </c>
+      <c r="I33" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" t="s">
+        <v>109</v>
+      </c>
+      <c r="F34" t="s">
+        <v>113</v>
+      </c>
+      <c r="G34">
+        <v>12975089</v>
+      </c>
+      <c r="H34" t="s">
+        <v>130</v>
+      </c>
+      <c r="I34" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" t="s">
+        <v>109</v>
+      </c>
+      <c r="E35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35">
+        <v>12975110</v>
+      </c>
+      <c r="H35" t="s">
+        <v>133</v>
+      </c>
+      <c r="I35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D36" t="s">
+        <v>109</v>
+      </c>
+      <c r="F36" t="s">
+        <v>113</v>
+      </c>
+      <c r="G36">
+        <v>12975095</v>
+      </c>
+      <c r="H36" t="s">
+        <v>136</v>
+      </c>
+      <c r="I36" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" t="s">
+        <v>109</v>
+      </c>
+      <c r="F37" t="s">
+        <v>113</v>
+      </c>
+      <c r="G37">
+        <v>12975103</v>
+      </c>
+      <c r="H37" t="s">
+        <v>139</v>
+      </c>
+      <c r="I37" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38">
+        <v>12975087</v>
+      </c>
+      <c r="H38" t="s">
+        <v>142</v>
+      </c>
+      <c r="I38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F39" t="s">
+        <v>113</v>
+      </c>
+      <c r="G39">
+        <v>12975097</v>
+      </c>
+      <c r="H39" t="s">
+        <v>145</v>
+      </c>
+      <c r="I39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>146</v>
+      </c>
+      <c r="C40" t="s">
+        <v>147</v>
+      </c>
+      <c r="D40" t="s">
+        <v>148</v>
+      </c>
+      <c r="E40" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40">
+        <v>14475007</v>
+      </c>
+      <c r="H40" t="s">
+        <v>149</v>
+      </c>
+      <c r="I40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>150</v>
+      </c>
+      <c r="C41" t="s">
+        <v>151</v>
+      </c>
+      <c r="D41" t="s">
+        <v>148</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41">
+        <v>12975111</v>
+      </c>
+      <c r="H41" t="s">
+        <v>152</v>
+      </c>
+      <c r="I41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>153</v>
+      </c>
+      <c r="C42" t="s">
+        <v>154</v>
+      </c>
+      <c r="D42" t="s">
+        <v>148</v>
+      </c>
+      <c r="F42" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42">
+        <v>14025006</v>
+      </c>
+      <c r="H42" t="s">
+        <v>155</v>
+      </c>
+      <c r="I42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" t="s">
+        <v>157</v>
+      </c>
+      <c r="D43" t="s">
+        <v>148</v>
+      </c>
+      <c r="E43" t="s">
+        <v>47</v>
+      </c>
+      <c r="F43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43">
+        <v>14400007</v>
+      </c>
+      <c r="H43" t="s">
+        <v>158</v>
+      </c>
+      <c r="I43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>159</v>
+      </c>
+      <c r="D44" t="s">
+        <v>148</v>
+      </c>
+      <c r="F44" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44">
+        <v>14025010</v>
+      </c>
+      <c r="H44" t="s">
+        <v>160</v>
+      </c>
+      <c r="I44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>161</v>
+      </c>
+      <c r="C45" t="s">
+        <v>162</v>
+      </c>
+      <c r="D45" t="s">
+        <v>148</v>
+      </c>
+      <c r="E45" t="s">
+        <v>47</v>
+      </c>
+      <c r="F45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45">
+        <v>25125064</v>
+      </c>
+      <c r="H45" t="s">
+        <v>163</v>
+      </c>
+      <c r="I45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>164</v>
+      </c>
+      <c r="C46" t="s">
+        <v>165</v>
+      </c>
+      <c r="D46" t="s">
+        <v>148</v>
+      </c>
+      <c r="E46" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46">
+        <v>73725066</v>
+      </c>
+      <c r="H46" t="s">
+        <v>166</v>
+      </c>
+      <c r="I46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>167</v>
+      </c>
+      <c r="C47" t="s">
+        <v>168</v>
+      </c>
+      <c r="D47" t="s">
+        <v>148</v>
+      </c>
+      <c r="E47" t="s">
+        <v>91</v>
+      </c>
+      <c r="F47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47">
+        <v>129300162</v>
+      </c>
+      <c r="H47" t="s">
+        <v>169</v>
+      </c>
+      <c r="I47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>170</v>
+      </c>
+      <c r="C48" t="s">
+        <v>171</v>
+      </c>
+      <c r="D48" t="s">
+        <v>148</v>
+      </c>
+      <c r="E48" t="s">
+        <v>47</v>
+      </c>
+      <c r="F48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48">
+        <v>147150163</v>
+      </c>
+      <c r="H48" t="s">
+        <v>172</v>
+      </c>
+      <c r="I48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>173</v>
+      </c>
+      <c r="C49" t="s">
+        <v>174</v>
+      </c>
+      <c r="D49" t="s">
+        <v>148</v>
+      </c>
+      <c r="E49" t="s">
+        <v>47</v>
+      </c>
+      <c r="F49" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49">
+        <v>133425161</v>
+      </c>
+      <c r="H49" t="s">
+        <v>175</v>
+      </c>
+      <c r="I49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>176</v>
+      </c>
+      <c r="C50" t="s">
+        <v>177</v>
+      </c>
+      <c r="D50" t="s">
+        <v>178</v>
+      </c>
+      <c r="E50" t="s">
+        <v>39</v>
+      </c>
+      <c r="F50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50">
+        <v>12975108</v>
+      </c>
+      <c r="H50" t="s">
+        <v>179</v>
+      </c>
+      <c r="I50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>180</v>
+      </c>
+      <c r="C51" t="s">
+        <v>181</v>
+      </c>
+      <c r="D51" t="s">
+        <v>178</v>
+      </c>
+      <c r="F51" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51">
+        <v>13950007</v>
+      </c>
+      <c r="H51" t="s">
+        <v>182</v>
+      </c>
+      <c r="I51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>183</v>
+      </c>
+      <c r="C52" t="s">
+        <v>184</v>
+      </c>
+      <c r="D52" t="s">
+        <v>178</v>
+      </c>
+      <c r="E52" t="s">
+        <v>47</v>
+      </c>
+      <c r="F52" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>186</v>
+      </c>
+      <c r="C53" t="s">
+        <v>187</v>
+      </c>
+      <c r="D53" t="s">
+        <v>271</v>
+      </c>
+      <c r="E53" t="s">
+        <v>39</v>
+      </c>
+      <c r="F53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53">
+        <v>14625167</v>
+      </c>
+      <c r="H53" t="s">
+        <v>188</v>
+      </c>
+      <c r="I53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>189</v>
+      </c>
+      <c r="C54" t="s">
+        <v>190</v>
+      </c>
+      <c r="D54" t="s">
+        <v>271</v>
+      </c>
+      <c r="E54" t="s">
+        <v>39</v>
+      </c>
+      <c r="F54" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54">
+        <v>14700010</v>
+      </c>
+      <c r="H54" t="s">
+        <v>191</v>
+      </c>
+      <c r="I54" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>192</v>
+      </c>
+      <c r="C55" t="s">
+        <v>193</v>
+      </c>
+      <c r="D55" t="s">
+        <v>271</v>
+      </c>
+      <c r="F55" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55">
+        <v>15000006</v>
+      </c>
+      <c r="H55" t="s">
+        <v>194</v>
+      </c>
+      <c r="I55" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>195</v>
+      </c>
+      <c r="C56" t="s">
+        <v>196</v>
+      </c>
+      <c r="D56" t="s">
+        <v>271</v>
+      </c>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56">
+        <v>14700033</v>
+      </c>
+      <c r="H56" t="s">
+        <v>197</v>
+      </c>
+      <c r="I56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>198</v>
+      </c>
+      <c r="C57" t="s">
+        <v>199</v>
+      </c>
+      <c r="D57" t="s">
+        <v>271</v>
+      </c>
+      <c r="E57" t="s">
+        <v>47</v>
+      </c>
+      <c r="F57" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57">
+        <v>50550035</v>
+      </c>
+      <c r="H57" t="s">
+        <v>200</v>
+      </c>
+      <c r="I57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>201</v>
+      </c>
+      <c r="C58" t="s">
+        <v>202</v>
+      </c>
+      <c r="D58" t="s">
+        <v>203</v>
+      </c>
+      <c r="E58" t="s">
+        <v>39</v>
+      </c>
+      <c r="F58" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58">
+        <v>13125018</v>
+      </c>
+      <c r="H58" t="s">
+        <v>204</v>
+      </c>
+      <c r="I58" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>205</v>
+      </c>
+      <c r="C59" t="s">
+        <v>206</v>
+      </c>
+      <c r="D59" t="s">
+        <v>203</v>
+      </c>
+      <c r="E59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59">
+        <v>12975088</v>
+      </c>
+      <c r="H59" t="s">
+        <v>207</v>
+      </c>
+      <c r="I59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>208</v>
+      </c>
+      <c r="C60" t="s">
+        <v>209</v>
+      </c>
+      <c r="D60" t="s">
+        <v>203</v>
+      </c>
+      <c r="F60" t="s">
+        <v>113</v>
+      </c>
+      <c r="G60">
+        <v>12975099</v>
+      </c>
+      <c r="H60" t="s">
+        <v>210</v>
+      </c>
+      <c r="I60" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>211</v>
+      </c>
+      <c r="C61" t="s">
+        <v>212</v>
+      </c>
+      <c r="D61" t="s">
+        <v>203</v>
+      </c>
+      <c r="F61" t="s">
+        <v>113</v>
+      </c>
+      <c r="G61">
+        <v>12975106</v>
+      </c>
+      <c r="H61" t="s">
+        <v>213</v>
+      </c>
+      <c r="I61" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>214</v>
+      </c>
+      <c r="C62" t="s">
+        <v>215</v>
+      </c>
+      <c r="D62" t="s">
+        <v>203</v>
+      </c>
+      <c r="F62" t="s">
+        <v>113</v>
+      </c>
+      <c r="G62">
+        <v>12975094</v>
+      </c>
+      <c r="H62" t="s">
+        <v>216</v>
+      </c>
+      <c r="I62" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>217</v>
+      </c>
+      <c r="C63" t="s">
+        <v>218</v>
+      </c>
+      <c r="D63" t="s">
+        <v>203</v>
+      </c>
+      <c r="F63" t="s">
+        <v>113</v>
+      </c>
+      <c r="G63">
+        <v>12975104</v>
+      </c>
+      <c r="H63" t="s">
+        <v>219</v>
+      </c>
+      <c r="I63" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>220</v>
+      </c>
+      <c r="C64" t="s">
+        <v>221</v>
+      </c>
+      <c r="D64" t="s">
+        <v>203</v>
+      </c>
+      <c r="F64" t="s">
+        <v>113</v>
+      </c>
+      <c r="G64">
+        <v>12975105</v>
+      </c>
+      <c r="H64" t="s">
+        <v>222</v>
+      </c>
+      <c r="I64" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>223</v>
+      </c>
+      <c r="C65" t="s">
+        <v>224</v>
+      </c>
+      <c r="D65" t="s">
+        <v>203</v>
+      </c>
+      <c r="F65" t="s">
+        <v>113</v>
+      </c>
+      <c r="G65">
+        <v>12975098</v>
+      </c>
+      <c r="H65" t="s">
+        <v>225</v>
+      </c>
+      <c r="I65" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>226</v>
+      </c>
+      <c r="C66" t="s">
+        <v>227</v>
+      </c>
+      <c r="D66" t="s">
+        <v>203</v>
+      </c>
+      <c r="F66" t="s">
+        <v>113</v>
+      </c>
+      <c r="G66">
+        <v>12975101</v>
+      </c>
+      <c r="H66" t="s">
+        <v>228</v>
+      </c>
+      <c r="I66" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>229</v>
+      </c>
+      <c r="C67" t="s">
+        <v>230</v>
+      </c>
+      <c r="D67" t="s">
+        <v>203</v>
+      </c>
+      <c r="F67" t="s">
+        <v>113</v>
+      </c>
+      <c r="G67">
+        <v>12975091</v>
+      </c>
+      <c r="H67" t="s">
+        <v>231</v>
+      </c>
+      <c r="I67" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>232</v>
+      </c>
+      <c r="C68" t="s">
+        <v>233</v>
+      </c>
+      <c r="D68" t="s">
+        <v>203</v>
+      </c>
+      <c r="F68" t="s">
+        <v>113</v>
+      </c>
+      <c r="G68">
+        <v>12975096</v>
+      </c>
+      <c r="H68" t="s">
+        <v>234</v>
+      </c>
+      <c r="I68" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>235</v>
+      </c>
+      <c r="C69" t="s">
+        <v>236</v>
+      </c>
+      <c r="D69" t="s">
+        <v>203</v>
+      </c>
+      <c r="F69" t="s">
+        <v>113</v>
+      </c>
+      <c r="G69">
+        <v>105150163</v>
+      </c>
+      <c r="H69" t="s">
+        <v>237</v>
+      </c>
+      <c r="I69" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>239</v>
+      </c>
+      <c r="C70" t="s">
+        <v>240</v>
+      </c>
+      <c r="D70" t="s">
+        <v>203</v>
+      </c>
+      <c r="E70" t="s">
+        <v>241</v>
+      </c>
+      <c r="F70" t="s">
+        <v>113</v>
+      </c>
+      <c r="G70">
+        <v>153975164</v>
+      </c>
+      <c r="H70" t="s">
+        <v>242</v>
+      </c>
+      <c r="I70" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>243</v>
+      </c>
+      <c r="C71" t="s">
+        <v>244</v>
+      </c>
+      <c r="D71" t="s">
+        <v>245</v>
+      </c>
+      <c r="F71" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71">
+        <v>14025009</v>
+      </c>
+      <c r="H71" t="s">
+        <v>246</v>
+      </c>
+      <c r="I71" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>247</v>
+      </c>
+      <c r="D72" t="s">
+        <v>245</v>
+      </c>
+      <c r="E72" t="s">
+        <v>47</v>
+      </c>
+      <c r="F72" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>248</v>
+      </c>
+      <c r="C73" t="s">
+        <v>249</v>
+      </c>
+      <c r="D73" t="s">
+        <v>250</v>
+      </c>
+      <c r="E73" t="s">
+        <v>39</v>
+      </c>
+      <c r="F73" t="s">
+        <v>13</v>
+      </c>
+      <c r="G73">
+        <v>14550151</v>
+      </c>
+      <c r="H73" t="s">
+        <v>251</v>
+      </c>
+      <c r="I73" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>252</v>
+      </c>
+      <c r="C74" t="s">
+        <v>253</v>
+      </c>
+      <c r="D74" t="s">
+        <v>250</v>
+      </c>
+      <c r="E74" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74">
+        <v>14550152</v>
+      </c>
+      <c r="H74" t="s">
+        <v>254</v>
+      </c>
+      <c r="I74" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>255</v>
+      </c>
+      <c r="C75" t="s">
+        <v>256</v>
+      </c>
+      <c r="D75" t="s">
+        <v>250</v>
+      </c>
+      <c r="E75" t="s">
+        <v>47</v>
+      </c>
+      <c r="F75" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75">
+        <v>22050053</v>
+      </c>
+      <c r="H75" t="s">
+        <v>257</v>
+      </c>
+      <c r="I75" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>258</v>
+      </c>
+      <c r="C76" t="s">
+        <v>259</v>
+      </c>
+      <c r="D76" t="s">
+        <v>250</v>
+      </c>
+      <c r="E76" t="s">
+        <v>91</v>
+      </c>
+      <c r="F76" t="s">
+        <v>13</v>
+      </c>
+      <c r="G76">
+        <v>117900174</v>
+      </c>
+      <c r="H76" t="s">
+        <v>260</v>
+      </c>
+      <c r="I76" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>261</v>
+      </c>
+      <c r="C77" t="s">
+        <v>262</v>
+      </c>
+      <c r="D77" t="s">
+        <v>250</v>
+      </c>
+      <c r="F77" t="s">
+        <v>13</v>
+      </c>
+      <c r="G77">
+        <v>133425162</v>
+      </c>
+      <c r="H77" t="s">
+        <v>263</v>
+      </c>
+      <c r="I77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>264</v>
+      </c>
+      <c r="C78" t="s">
+        <v>265</v>
+      </c>
+      <c r="D78" t="s">
+        <v>266</v>
+      </c>
+      <c r="E78" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" t="s">
+        <v>13</v>
+      </c>
+      <c r="G78">
+        <v>13125020</v>
+      </c>
+      <c r="H78" t="s">
+        <v>267</v>
+      </c>
+      <c r="I78" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>268</v>
+      </c>
+      <c r="C79" t="s">
+        <v>269</v>
+      </c>
+      <c r="D79" t="s">
+        <v>266</v>
+      </c>
+      <c r="F79" t="s">
+        <v>18</v>
+      </c>
+      <c r="G79">
+        <v>14025007</v>
+      </c>
+      <c r="H79" t="s">
+        <v>270</v>
+      </c>
+      <c r="I79" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I79" xr:uid="{E7AD25F2-5AD9-4C18-B846-D76AF4F52DC8}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>